--- a/homeworks/CF_HW_3_2024_Answers.xlsx
+++ b/homeworks/CF_HW_3_2024_Answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fordhamit-my.sharepoint.com/personal/jcolon_fordham_edu/Documents/Corporate Finance/Problems/Problems Fall 2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fordhamit-my.sharepoint.com/personal/jcolon_fordham_edu/Documents/Corporate Finance/Corp Fin Git/Corp-Fin/Corporate-Finance/homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{B4E4D17E-52E0-1A41-9D33-4FD4D84BDAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90366CE8-9F7C-6C46-AC76-DCE5E88F3C1D}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{B4E4D17E-52E0-1A41-9D33-4FD4D84BDAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68C65D81-3AF7-004B-BA44-E1516CB2CB07}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="25560" windowHeight="25980" xr2:uid="{94BA6622-874D-4C4C-9275-99AF5B5CA140}"/>
+    <workbookView xWindow="10000" yWindow="500" windowWidth="32900" windowHeight="25980" xr2:uid="{94BA6622-874D-4C4C-9275-99AF5B5CA140}"/>
   </bookViews>
   <sheets>
     <sheet name="HW 3 Ans" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="140">
   <si>
     <t>Corporate Finance</t>
   </si>
@@ -513,9 +513,6 @@
     <t>The loan is now repaid in roughly 24.25 years.  Note, months are rounded values.</t>
   </si>
   <si>
-    <t>By increasing the payment by 28%, you knock about 50% off the term.</t>
-  </si>
-  <si>
     <t>Difference btwn 288 and 222</t>
   </si>
   <si>
@@ -559,6 +556,12 @@
   </si>
   <si>
     <t xml:space="preserve">EAR </t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>By increasing the payment by 35%, you knock about 50% off the term.</t>
   </si>
 </sst>
 </file>
@@ -860,7 +863,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1010,30 +1013,22 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1086,16 +1081,7 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
@@ -1112,48 +1098,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1499,72 +1501,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F09B5BE-7AF3-BB46-8E22-3746DE23EAA1}">
-  <dimension ref="B2:F143"/>
+  <dimension ref="B2:F145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" zoomScale="114" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="76" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="76" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="76" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="76"/>
-    <col min="5" max="5" width="15" style="76" customWidth="1"/>
-    <col min="6" max="6" width="70" style="76" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="76"/>
+    <col min="1" max="1" width="8.5" style="72" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="72" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="72" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="72"/>
+    <col min="5" max="5" width="15" style="72" customWidth="1"/>
+    <col min="6" max="6" width="76.6640625" style="72" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="72"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="75"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="75"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="6" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
-      <c r="F8" s="80"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="F9" s="80"/>
+      <c r="C9" s="116"/>
+      <c r="F9" s="76"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="82">
-        <v>0</v>
-      </c>
-      <c r="F10" s="80"/>
+      <c r="C10" s="78">
+        <v>0</v>
+      </c>
+      <c r="F10" s="76"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
@@ -1581,49 +1583,49 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="79">
         <v>10</v>
       </c>
-      <c r="F12" s="80"/>
+      <c r="F12" s="76"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="80">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F13" s="80"/>
+      <c r="F13" s="76"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="81">
         <v>-10000</v>
       </c>
-      <c r="F14" s="80"/>
+      <c r="F14" s="76"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="81"/>
-      <c r="C15" s="84"/>
-      <c r="F15" s="80"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="80"/>
+      <c r="F15" s="76"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="82">
+      <c r="C16" s="78">
         <f>-C11</f>
         <v>-138164.47961279508</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="80"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
@@ -1640,57 +1642,57 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="83">
+      <c r="C18" s="79">
         <v>30</v>
       </c>
-      <c r="F18" s="80"/>
+      <c r="F18" s="76"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="84">
+      <c r="C19" s="80">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F19" s="80"/>
+      <c r="F19" s="76"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="82">
-        <v>0</v>
-      </c>
-      <c r="F20" s="80"/>
+      <c r="C20" s="78">
+        <v>0</v>
+      </c>
+      <c r="F20" s="76"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="81"/>
-      <c r="C21" s="84"/>
-      <c r="F21" s="80"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="80"/>
+      <c r="F21" s="76"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="81"/>
-      <c r="C22" s="84"/>
-      <c r="F22" s="80"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="80"/>
+      <c r="F22" s="76"/>
     </row>
     <row r="23" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="F23" s="80"/>
+      <c r="C23" s="116"/>
+      <c r="F23" s="76"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="82">
-        <v>0</v>
-      </c>
-      <c r="F24" s="80"/>
+      <c r="C24" s="78">
+        <v>0</v>
+      </c>
+      <c r="F24" s="76"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
@@ -1703,1191 +1705,1238 @@
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="80"/>
+      <c r="F25" s="76"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="83">
+      <c r="C26" s="79">
         <v>30</v>
       </c>
-      <c r="F26" s="80"/>
+      <c r="F26" s="76"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="84">
+      <c r="C27" s="80">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F27" s="80"/>
+      <c r="F27" s="76"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="85">
+      <c r="C28" s="81">
         <v>-10000</v>
       </c>
-      <c r="F28" s="80"/>
+      <c r="F28" s="76"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="76" t="s">
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="80"/>
+      <c r="F29" s="76"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="81"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="86" t="s">
+      <c r="B30" s="77"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="80"/>
+      <c r="F30" s="76"/>
     </row>
     <row r="31" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="89" t="s">
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
     </row>
     <row r="32" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="79"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="75"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="58"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="80"/>
+      <c r="C34" s="87"/>
+      <c r="F34" s="76"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="92">
+      <c r="C35" s="88">
         <v>500000</v>
       </c>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="80"/>
+      <c r="F35" s="76"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="77" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="59">
         <f>0.07/12</f>
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="D36" s="117" t="s">
+      <c r="D36" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="116"/>
-      <c r="F36" s="80"/>
+      <c r="F36" s="76"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="115">
+      <c r="C37" s="87">
         <v>360</v>
       </c>
-      <c r="D37" s="116" t="s">
+      <c r="D37" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="116"/>
-      <c r="F37" s="80"/>
+      <c r="F37" s="76"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="115">
-        <v>0</v>
-      </c>
-      <c r="D38" s="116" t="s">
+      <c r="C38" s="87">
+        <v>0</v>
+      </c>
+      <c r="D38" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="116"/>
-      <c r="F38" s="80"/>
+      <c r="F38" s="76"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="118">
+      <c r="C39" s="104">
         <f>PMT(C36,C37,C35)</f>
         <v>-3326.5124758959159</v>
       </c>
-      <c r="D39" s="119" t="s">
+      <c r="D39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="116"/>
-      <c r="F39" s="80"/>
+      <c r="F39" s="76"/>
     </row>
     <row r="40" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="80"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="89"/>
+      <c r="F40" s="76"/>
     </row>
     <row r="41" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="80"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="89"/>
+      <c r="F41" s="76"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="121">
+      <c r="C42" s="105">
         <f>C35</f>
         <v>500000</v>
       </c>
-      <c r="D42" s="120"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="80"/>
+      <c r="D42" s="89"/>
+      <c r="F42" s="76"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="81" t="s">
+      <c r="B43" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="122">
+      <c r="C43" s="106">
         <f>C36</f>
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="D43" s="120"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="80"/>
+      <c r="D43" s="89"/>
+      <c r="F43" s="76"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B44" s="81" t="s">
+      <c r="B44" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="123">
-        <v>0</v>
-      </c>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="80"/>
+      <c r="C44" s="107">
+        <v>0</v>
+      </c>
+      <c r="F44" s="76"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="81" t="s">
+      <c r="B45" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="123">
+      <c r="C45" s="107">
         <v>250</v>
       </c>
-      <c r="D45" s="116"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="80"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="76"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="118">
+      <c r="C46" s="104">
         <f>C39-C45</f>
         <v>-3576.5124758959159</v>
       </c>
-      <c r="D46" s="116" t="s">
+      <c r="D46" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="E46" s="116"/>
-      <c r="F46" s="80"/>
+      <c r="F46" s="76"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="125">
+      <c r="C47" s="109">
         <f>NPER(C43,C46,C42,C44)</f>
         <v>290.58206378851952</v>
       </c>
-      <c r="D47" s="119" t="s">
+      <c r="D47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="116"/>
-      <c r="F47" s="80"/>
+      <c r="F47" s="76"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="124" t="str">
+      <c r="C48" s="108" t="str">
         <f>INT(291/12)&amp;" yrs and "&amp;MOD(291,12)&amp;" months"</f>
         <v>24 yrs and 3 months</v>
       </c>
-      <c r="D48" s="116" t="s">
+      <c r="D48" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="116"/>
-      <c r="F48" s="80"/>
+      <c r="F48" s="76"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="94"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="126" t="s">
+      <c r="B49" s="90"/>
+      <c r="D49" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="116"/>
-      <c r="F49" s="80"/>
+      <c r="F49" s="76"/>
     </row>
     <row r="50" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="120" t="s">
+      <c r="C50" s="104"/>
+      <c r="D50" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="116"/>
-      <c r="F50" s="80"/>
+      <c r="F50" s="76"/>
     </row>
     <row r="51" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="118"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="80"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="89"/>
+      <c r="F51" s="76"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B52" s="81" t="s">
+      <c r="B52" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="121">
+      <c r="C52" s="105">
         <f>C42</f>
         <v>500000</v>
       </c>
-      <c r="D52" s="120"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="80"/>
+      <c r="D52" s="89"/>
+      <c r="F52" s="76"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B53" s="81" t="s">
+      <c r="B53" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="122">
+      <c r="C53" s="106">
         <f>C36</f>
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="D53" s="120"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="80"/>
+      <c r="D53" s="89"/>
+      <c r="F53" s="76"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="127">
+      <c r="C54" s="111">
         <f>15*12</f>
         <v>180</v>
       </c>
-      <c r="D54" s="128" t="s">
+      <c r="D54" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="116"/>
-      <c r="F54" s="80"/>
+      <c r="F54" s="76"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="81" t="s">
+      <c r="B55" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="123">
-        <v>0</v>
-      </c>
-      <c r="D55" s="116"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="80"/>
+      <c r="C55" s="107">
+        <v>0</v>
+      </c>
+      <c r="F55" s="76"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="118">
+      <c r="C56" s="104">
         <f>PMT(C53,C54,C52)</f>
         <v>-4494.1413542621358</v>
       </c>
-      <c r="D56" s="119" t="s">
+      <c r="D56" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="116"/>
-      <c r="F56" s="80"/>
+      <c r="F56" s="76"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B57" s="94"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="126" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="120"/>
-      <c r="F57" s="80"/>
-    </row>
-    <row r="58" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="4"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="6"/>
+      <c r="F57" s="76"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
-      <c r="C58" s="129"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="80"/>
-    </row>
-    <row r="59" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="72" t="s">
+      <c r="C58" s="104">
+        <f>-C56+C39</f>
+        <v>1167.6288783662199</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" s="76"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B59" s="4"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="76"/>
+    </row>
+    <row r="60" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="90"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="76"/>
+    </row>
+    <row r="61" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="129"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="116"/>
-      <c r="F59" s="80"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="4"/>
-      <c r="C60" s="126"/>
-      <c r="D60" s="120"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="80"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B61" s="4"/>
-      <c r="C61" s="126" t="s">
+      <c r="C61" s="112"/>
+      <c r="D61" s="89"/>
+      <c r="F61" s="76"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B62" s="4"/>
+      <c r="C62" s="110"/>
+      <c r="D62" s="89"/>
+      <c r="F62" s="76"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B63" s="4"/>
+      <c r="C63" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="120"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="80"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B62" s="4" t="s">
+      <c r="D63" s="89"/>
+      <c r="F63" s="76"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B64" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="118">
-        <f>PV(C63,C64,C66,C65)</f>
+      <c r="C64" s="104">
+        <f>PV(C65,C66,C68,C67)</f>
         <v>463457.76092409599</v>
       </c>
-      <c r="D62" s="119" t="s">
+      <c r="D64" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E62" s="116"/>
-      <c r="F62" s="80"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B63" s="81" t="s">
+      <c r="F64" s="76"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="122">
+      <c r="C65" s="106">
         <f>C36</f>
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="D63" s="120"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="80"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B64" s="81" t="s">
+      <c r="D65" s="89"/>
+      <c r="F65" s="76"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B66" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="130">
+      <c r="C66" s="113">
         <f>360-72</f>
         <v>288</v>
       </c>
-      <c r="D64" s="128" t="s">
+      <c r="D66" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="116"/>
-      <c r="F64" s="80"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B65" s="81" t="s">
+      <c r="F66" s="76"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B67" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="123">
-        <v>0</v>
-      </c>
-      <c r="D65" s="120"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="80"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B66" s="61" t="s">
+      <c r="C67" s="107">
+        <v>0</v>
+      </c>
+      <c r="D67" s="89"/>
+      <c r="F67" s="76"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B68" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="118">
+      <c r="C68" s="104">
         <f>C39</f>
         <v>-3326.5124758959159</v>
       </c>
-      <c r="D66" s="116" t="s">
+      <c r="D68" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="116"/>
-      <c r="F66" s="80"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B67" s="4"/>
-      <c r="C67" s="118"/>
-      <c r="D67" s="120"/>
-      <c r="E67" s="116"/>
-      <c r="F67" s="80"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B68" s="4"/>
-      <c r="C68" s="131" t="s">
+      <c r="F68" s="76"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B69" s="4"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="89"/>
+      <c r="F69" s="76"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B70" s="4"/>
+      <c r="C70" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="120"/>
-      <c r="E68" s="116"/>
-      <c r="F68" s="80"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="4" t="s">
+      <c r="D70" s="89"/>
+      <c r="F70" s="76"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B71" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="118">
+      <c r="C71" s="104">
         <v>50000</v>
       </c>
-      <c r="D69" s="120"/>
-      <c r="E69" s="116"/>
-      <c r="F69" s="80"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B70" s="4" t="s">
+      <c r="D71" s="89"/>
+      <c r="F71" s="76"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B72" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="118">
-        <f>C62-C69</f>
+      <c r="C72" s="104">
+        <f>C64-C71</f>
         <v>413457.76092409599</v>
       </c>
-      <c r="D70" s="116" t="s">
+      <c r="D72" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="E70" s="116"/>
-      <c r="F70" s="80"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B71" s="81" t="s">
+      <c r="F72" s="76"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B73" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="122">
+      <c r="C73" s="106">
         <f>C36</f>
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="D71" s="120"/>
-      <c r="E71" s="116"/>
-      <c r="F71" s="80"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B72" s="4" t="s">
+      <c r="D73" s="89"/>
+      <c r="F73" s="76"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B74" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="130">
-        <f>NPER(C71,C76,C70,C75)</f>
+      <c r="C74" s="113">
+        <f>NPER(C73,C78,C72,C77)</f>
         <v>221.97812903968645</v>
       </c>
-      <c r="D72" s="119" t="s">
+      <c r="D74" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E72" s="128"/>
-      <c r="F72" s="80"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B73" s="4" t="s">
+      <c r="E74" s="7"/>
+      <c r="F74" s="76"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B75" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C73" s="130">
-        <f>C64-C72</f>
+      <c r="C75" s="113">
+        <f>C66-C74</f>
         <v>66.021870960313549</v>
       </c>
-      <c r="D73" s="119" t="s">
-        <v>124</v>
-      </c>
-      <c r="E73" s="128"/>
-      <c r="F73" s="80"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B74" s="81" t="s">
+      <c r="D75" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="76"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B76" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="C74" s="124" t="str">
+      <c r="C76" s="108" t="str">
         <f>INT(66/12)&amp;" yrs and "&amp;MOD(66,12)&amp;" months"</f>
         <v>5 yrs and 6 months</v>
       </c>
-      <c r="D74" s="116" t="s">
+      <c r="D76" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="76"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B77" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="107">
+        <v>0</v>
+      </c>
+      <c r="D77" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="E74" s="116"/>
-      <c r="F74" s="80"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B75" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="123">
-        <v>0</v>
-      </c>
-      <c r="D75" s="120" t="s">
-        <v>126</v>
-      </c>
-      <c r="E75" s="116"/>
-      <c r="F75" s="80"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B76" s="61" t="s">
+      <c r="F77" s="76"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B78" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="118">
-        <f>C66</f>
-        <v>-3326.5124758959159</v>
-      </c>
-      <c r="D76" s="120"/>
-      <c r="E76" s="116"/>
-      <c r="F76" s="80"/>
-    </row>
-    <row r="77" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="62"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="95"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="90"/>
-    </row>
-    <row r="79" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="9" t="s">
+      <c r="C78" s="104">
+        <f>C68</f>
+        <v>-3326.5124758959159</v>
+      </c>
+      <c r="D78" s="89"/>
+      <c r="F78" s="76"/>
+    </row>
+    <row r="79" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="62"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="86"/>
+    </row>
+    <row r="81" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="78"/>
-      <c r="D80" s="78"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="79"/>
-    </row>
-    <row r="81" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="58"/>
-      <c r="F81" s="80"/>
-    </row>
-    <row r="82" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="64" t="s">
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="75"/>
+    </row>
+    <row r="83" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="58"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
+      <c r="F83" s="76"/>
+    </row>
+    <row r="84" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="F82" s="80"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B83" s="96" t="s">
+      <c r="C84" s="117"/>
+      <c r="D84" s="117"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="76"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B85" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="C83" s="97">
+      <c r="C85" s="93">
         <v>0.03</v>
       </c>
-      <c r="D83" s="98"/>
-      <c r="E83" s="98"/>
-      <c r="F83" s="99"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B84" s="96" t="s">
+      <c r="D85" s="94"/>
+      <c r="E85" s="94"/>
+      <c r="F85" s="95"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B86" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="C84" s="92">
-        <f>C83*C85</f>
+      <c r="C86" s="88">
+        <f>C85*C87</f>
         <v>15000</v>
       </c>
-      <c r="D84" s="98" t="s">
+      <c r="D86" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="E84" s="100"/>
-      <c r="F84" s="80"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B85" s="81" t="s">
+      <c r="E86" s="96"/>
+      <c r="F86" s="76"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B87" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C85" s="92">
+      <c r="C87" s="88">
         <v>500000</v>
       </c>
-      <c r="E85" s="101"/>
-      <c r="F85" s="80"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B86" s="81" t="s">
+      <c r="D87" s="117"/>
+      <c r="E87" s="118"/>
+      <c r="F87" s="76"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B88" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="102">
-        <f>PMT(C90,C87,C85)</f>
-        <v>-3326.5124758959159</v>
-      </c>
-      <c r="D86" s="93" t="s">
+      <c r="C88" s="119">
+        <f>PMT(C92,C89,C87)</f>
+        <v>-3326.5124758959159</v>
+      </c>
+      <c r="D88" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="E86" s="103"/>
-      <c r="F86" s="80"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B87" s="81" t="s">
+      <c r="E88" s="121"/>
+      <c r="F88" s="76"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B89" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="91">
+      <c r="C89" s="122">
         <v>360</v>
       </c>
-      <c r="F87" s="80"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B88" s="81" t="s">
+      <c r="D89" s="117"/>
+      <c r="E89" s="117"/>
+      <c r="F89" s="76"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B90" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="104">
-        <f>C85-C85*C83</f>
+      <c r="C90" s="97">
+        <f>C87-C87*C85</f>
         <v>485000</v>
       </c>
-      <c r="D88" s="93" t="s">
+      <c r="D90" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="F88" s="80"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B89" s="61" t="s">
+      <c r="E90" s="117"/>
+      <c r="F90" s="76"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B91" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C89" s="97">
+      <c r="C91" s="93">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D89" s="93"/>
-      <c r="F89" s="80"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B90" s="61" t="s">
+      <c r="D91" s="120"/>
+      <c r="E91" s="117"/>
+      <c r="F91" s="76"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B92" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="97">
-        <f>C89/12</f>
+      <c r="C92" s="93">
+        <f>C91/12</f>
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="D90" s="65" t="s">
+      <c r="D92" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="F90" s="80"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B91" s="4" t="s">
+      <c r="E92" s="117"/>
+      <c r="F92" s="76"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B93" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="66">
-        <f>RATE(C87,C86,C88)</f>
+      <c r="C93" s="65">
+        <f>RATE(C89,C88,C90)</f>
         <v>6.0871089941770132E-3</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D93" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B92" s="4" t="s">
+      <c r="E93" s="125"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B94" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C92" s="66">
-        <f>C91*12</f>
+      <c r="C94" s="65">
+        <f>C93*12</f>
         <v>7.3045307930124162E-2</v>
       </c>
-      <c r="D92" s="65" t="s">
+      <c r="D94" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="F92" s="80"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B93" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="C93" s="59">
-        <f>(1+C91)^12-1</f>
+      <c r="E94" s="117"/>
+      <c r="F94" s="76"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B95" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="59">
+        <f>(1+C93)^12-1</f>
         <v>7.5541105223523974E-2</v>
       </c>
-      <c r="D93" s="60" t="s">
+      <c r="D95" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="F93" s="80"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B94" s="4"/>
-      <c r="C94" s="91"/>
-      <c r="D94" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="F94" s="80"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B95" s="4"/>
-      <c r="C95" s="91"/>
-      <c r="D95" s="60" t="s">
+      <c r="E95" s="117"/>
+      <c r="F95" s="76"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B96" s="4"/>
+      <c r="C96" s="122"/>
+      <c r="D96" s="126" t="s">
+        <v>131</v>
+      </c>
+      <c r="E96" s="117"/>
+      <c r="F96" s="76"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B97" s="4"/>
+      <c r="C97" s="122"/>
+      <c r="D97" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="E97" s="117"/>
+      <c r="F97" s="76"/>
+    </row>
+    <row r="98" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B98" s="4"/>
+      <c r="C98" s="122"/>
+      <c r="D98" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="F95" s="80"/>
-    </row>
-    <row r="96" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B96" s="4"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="F96" s="80"/>
-    </row>
-    <row r="97" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="61"/>
-      <c r="C97" s="91"/>
-      <c r="D97" s="105" t="s">
-        <v>129</v>
-      </c>
-      <c r="F97" s="80"/>
-    </row>
-    <row r="98" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="64" t="s">
+      <c r="E98" s="117"/>
+      <c r="F98" s="76"/>
+    </row>
+    <row r="99" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="61"/>
+      <c r="C99" s="122"/>
+      <c r="D99" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" s="117"/>
+      <c r="F99" s="76"/>
+    </row>
+    <row r="100" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C98" s="91"/>
-      <c r="D98" s="60"/>
-      <c r="F98" s="80"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B99" s="4"/>
-      <c r="C99" s="91"/>
-      <c r="D99" s="60"/>
-      <c r="F99" s="80"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B100" s="4" t="s">
+      <c r="C100" s="122"/>
+      <c r="D100" s="126"/>
+      <c r="E100" s="117"/>
+      <c r="F100" s="76"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B101" s="4"/>
+      <c r="C101" s="122"/>
+      <c r="D101" s="126"/>
+      <c r="E101" s="117"/>
+      <c r="F101" s="76"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B102" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="91"/>
-      <c r="D100" s="60"/>
-      <c r="F100" s="80"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B101" s="67">
+      <c r="C102" s="122"/>
+      <c r="D102" s="126"/>
+      <c r="E102" s="117"/>
+      <c r="F102" s="76"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B103" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C101" s="102">
+      <c r="C103" s="119">
+        <f>C88</f>
+        <v>-3326.5124758959159</v>
+      </c>
+      <c r="D103" s="126" t="s">
+        <v>76</v>
+      </c>
+      <c r="E103" s="117"/>
+      <c r="F103" s="76"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B104" s="66">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C104" s="119">
+        <f>PMT(B104/12,360, 500000)</f>
+        <v>-3496.0725427638963</v>
+      </c>
+      <c r="D104" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="E104" s="117"/>
+      <c r="F104" s="76"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B105" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" s="119">
+        <f>C103-C104</f>
+        <v>169.56006686798037</v>
+      </c>
+      <c r="D105" s="126"/>
+      <c r="E105" s="117"/>
+      <c r="F105" s="76"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B106" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" s="128">
         <f>C86</f>
-        <v>-3326.5124758959159</v>
-      </c>
-      <c r="D101" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="F101" s="80"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B102" s="67">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C102" s="102">
-        <f>PMT(B102/12,360, 500000)</f>
-        <v>-3496.0725427638963</v>
-      </c>
-      <c r="D102" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="F102" s="80"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B103" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C103" s="102">
-        <f>C101-C102</f>
-        <v>169.56006686798037</v>
-      </c>
-      <c r="D103" s="60"/>
-      <c r="F103" s="80"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B104" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C104" s="106">
-        <f>C84</f>
         <v>15000</v>
       </c>
-      <c r="D104" s="60"/>
-      <c r="F104" s="80"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B105" s="4" t="s">
+      <c r="D106" s="126"/>
+      <c r="E106" s="117"/>
+      <c r="F106" s="76"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B107" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C105" s="68">
-        <f>C104/C103</f>
+      <c r="C107" s="129">
+        <f>C106/C105</f>
         <v>88.464225551874861</v>
       </c>
-      <c r="D105" s="65" t="s">
+      <c r="D107" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="F105" s="80"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B106" s="4" t="s">
+      <c r="E107" s="117"/>
+      <c r="F107" s="76"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B108" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B107" s="61" t="s">
+      <c r="C108" s="117"/>
+      <c r="D108" s="117"/>
+      <c r="E108" s="117"/>
+      <c r="F108" s="76"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B109" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C107" s="91" t="str">
-        <f>INT(C105/12) &amp; " years and " &amp;ROUND(MOD(C105,12),0)&amp; " months"</f>
+      <c r="C109" s="122" t="str">
+        <f>INT(C107/12) &amp; " years and " &amp;ROUND(MOD(C107,12),0)&amp; " months"</f>
         <v>7 years and 4 months</v>
       </c>
-      <c r="D107" s="65" t="s">
+      <c r="D109" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="F107" s="80"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B108" s="4"/>
-      <c r="C108" s="91"/>
-      <c r="D108" s="60" t="s">
+      <c r="E109" s="117"/>
+      <c r="F109" s="76"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B110" s="4"/>
+      <c r="C110" s="122"/>
+      <c r="D110" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="F108" s="80"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B109" s="94"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B110" s="94"/>
-      <c r="D110" s="60" t="s">
+      <c r="E110" s="117"/>
+      <c r="F110" s="76"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B111" s="90"/>
+      <c r="C111" s="117"/>
+      <c r="D111" s="117"/>
+      <c r="E111" s="117"/>
+      <c r="F111" s="76"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B112" s="90"/>
+      <c r="C112" s="117"/>
+      <c r="D112" s="126" t="s">
         <v>85</v>
       </c>
-      <c r="F110" s="80"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B111" s="4"/>
-      <c r="C111" s="91"/>
-      <c r="D111" s="60" t="s">
+      <c r="E112" s="117"/>
+      <c r="F112" s="76"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B113" s="4"/>
+      <c r="C113" s="122"/>
+      <c r="D113" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="F111" s="80"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B112" s="4"/>
-      <c r="C112" s="91"/>
-      <c r="D112" s="60" t="s">
+      <c r="E113" s="117"/>
+      <c r="F113" s="76"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B114" s="4"/>
+      <c r="C114" s="122"/>
+      <c r="D114" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="F112" s="80"/>
-    </row>
-    <row r="113" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="4"/>
-      <c r="C113" s="91"/>
-      <c r="D113" s="107" t="s">
+      <c r="E114" s="117"/>
+      <c r="F114" s="76"/>
+    </row>
+    <row r="115" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="4"/>
+      <c r="C115" s="122"/>
+      <c r="D115" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="F113" s="80"/>
-    </row>
-    <row r="114" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="64" t="s">
+      <c r="E115" s="117"/>
+      <c r="F115" s="76"/>
+    </row>
+    <row r="116" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C114" s="91"/>
-      <c r="F114" s="80"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B115" s="61" t="s">
+      <c r="C116" s="122"/>
+      <c r="D116" s="117"/>
+      <c r="E116" s="117"/>
+      <c r="F116" s="76"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B117" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C115" s="92">
+      <c r="C117" s="88">
         <v>500000</v>
       </c>
-      <c r="F115" s="80"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B116" s="61" t="s">
+      <c r="D117" s="117"/>
+      <c r="E117" s="117"/>
+      <c r="F117" s="76"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B118" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C116" s="97">
-        <f>C90</f>
+      <c r="C118" s="93">
+        <f>C92</f>
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="D116" s="65" t="s">
+      <c r="D118" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="F116" s="80"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B117" s="81" t="s">
+      <c r="E118" s="117"/>
+      <c r="F118" s="76"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B119" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C117" s="102">
-        <f>PMT(C116,C118,C115)</f>
-        <v>-3326.5124758959159</v>
-      </c>
-      <c r="F117" s="80"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B118" s="81" t="s">
+      <c r="C119" s="119">
+        <f>PMT(C118,C120,C117)</f>
+        <v>-3326.5124758959159</v>
+      </c>
+      <c r="D119" s="117"/>
+      <c r="E119" s="117"/>
+      <c r="F119" s="76"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B120" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C118" s="91">
+      <c r="C120" s="122">
         <v>360</v>
       </c>
-      <c r="F118" s="80"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B119" s="81"/>
-      <c r="C119" s="91"/>
-      <c r="F119" s="80"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B120" s="81"/>
-      <c r="C120" s="91"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="8"/>
+      <c r="D120" s="117"/>
+      <c r="E120" s="117"/>
+      <c r="F120" s="76"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B121" s="81" t="s">
+      <c r="B121" s="77"/>
+      <c r="C121" s="122"/>
+      <c r="D121" s="117"/>
+      <c r="E121" s="117"/>
+      <c r="F121" s="76"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B122" s="77"/>
+      <c r="C122" s="122"/>
+      <c r="D122" s="117"/>
+      <c r="E122" s="125"/>
+      <c r="F122" s="8"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B123" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="102">
-        <f>C117</f>
-        <v>-3326.5124758959159</v>
-      </c>
-      <c r="D121" s="76" t="s">
+      <c r="C123" s="119">
+        <f>C119</f>
+        <v>-3326.5124758959159</v>
+      </c>
+      <c r="D123" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="F121" s="80"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B122" s="81" t="s">
+      <c r="E123" s="117"/>
+      <c r="F123" s="76"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B124" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="91">
+      <c r="C124" s="122">
         <f>360-(12*3)</f>
         <v>324</v>
       </c>
-      <c r="D122" s="60" t="s">
+      <c r="D124" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="F122" s="80"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B123" s="81" t="s">
+      <c r="E124" s="117"/>
+      <c r="F124" s="76"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B125" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="C123" s="97">
-        <f>C116</f>
+      <c r="C125" s="93">
+        <f>C118</f>
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="F123" s="80"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B124" s="4" t="s">
+      <c r="D125" s="117"/>
+      <c r="E125" s="117"/>
+      <c r="F125" s="76"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B126" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C124" s="69">
-        <f>PV(C123,C122,C121)</f>
+      <c r="C126" s="67">
+        <f>PV(C125,C124,C123)</f>
         <v>483634.81556176976</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D126" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="F124" s="80"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B125" s="81"/>
-      <c r="C125" s="91"/>
-      <c r="F125" s="80"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B126" s="81"/>
-      <c r="C126" s="106"/>
-      <c r="D126" s="7" t="s">
+      <c r="E126" s="117"/>
+      <c r="F126" s="76"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B127" s="77"/>
+      <c r="C127" s="122"/>
+      <c r="D127" s="117"/>
+      <c r="E127" s="117"/>
+      <c r="F127" s="76"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B128" s="77"/>
+      <c r="C128" s="128"/>
+      <c r="D128" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="E126" s="7"/>
-      <c r="F126" s="8"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B127" s="4" t="s">
+      <c r="E128" s="125"/>
+      <c r="F128" s="8"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B129" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C127" s="70">
-        <f>CUMPRINC(C116,C87,C85,1,36,0)</f>
+      <c r="C129" s="68">
+        <f>CUMPRINC(C118,C89,C87,1,36,0)</f>
         <v>-16365.184438230755</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D129" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="F127" s="80"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B128" s="81" t="s">
+      <c r="E129" s="117"/>
+      <c r="F129" s="76"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B130" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="C128" s="69">
-        <f>C115+C127</f>
+      <c r="C130" s="67">
+        <f>C117+C129</f>
         <v>483634.81556176924</v>
       </c>
-      <c r="D128" s="65" t="s">
+      <c r="D130" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="F128" s="80"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B129" s="81"/>
-      <c r="C129" s="92"/>
-      <c r="F129" s="80"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B130" s="81"/>
-      <c r="C130" s="92"/>
-      <c r="D130" s="7" t="s">
+      <c r="E130" s="117"/>
+      <c r="F130" s="76"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B131" s="77"/>
+      <c r="C131" s="88"/>
+      <c r="D131" s="117"/>
+      <c r="E131" s="117"/>
+      <c r="F131" s="76"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B132" s="77"/>
+      <c r="C132" s="88"/>
+      <c r="D132" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="F130" s="80"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B131" s="81"/>
-      <c r="C131" s="92"/>
-      <c r="D131" s="93"/>
-      <c r="F131" s="80"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B132" s="81"/>
-      <c r="C132" s="92"/>
-      <c r="D132" s="93" t="s">
+      <c r="E132" s="117"/>
+      <c r="F132" s="76"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B133" s="77"/>
+      <c r="C133" s="88"/>
+      <c r="D133" s="120"/>
+      <c r="E133" s="117"/>
+      <c r="F133" s="76"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B134" s="77"/>
+      <c r="C134" s="88"/>
+      <c r="D134" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="F132" s="80"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B133" s="81"/>
-      <c r="C133" s="92"/>
-      <c r="D133" s="93"/>
-      <c r="F133" s="80"/>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B134" s="81"/>
-      <c r="C134" s="106"/>
-      <c r="D134" s="7" t="s">
+      <c r="E134" s="117"/>
+      <c r="F134" s="76"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B135" s="77"/>
+      <c r="C135" s="88"/>
+      <c r="D135" s="120"/>
+      <c r="E135" s="117"/>
+      <c r="F135" s="76"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B136" s="77"/>
+      <c r="C136" s="128"/>
+      <c r="D136" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="F134" s="80"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B135" s="81"/>
-      <c r="C135" s="106"/>
-      <c r="D135" s="76" t="s">
+      <c r="E136" s="117"/>
+      <c r="F136" s="76"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B137" s="77"/>
+      <c r="C137" s="128"/>
+      <c r="D137" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="F135" s="80"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B136" s="81"/>
-      <c r="C136" s="91"/>
-      <c r="D136" s="7" t="s">
+      <c r="E137" s="117"/>
+      <c r="F137" s="76"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B138" s="77"/>
+      <c r="C138" s="122"/>
+      <c r="D138" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="F136" s="80"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B137" s="81" t="s">
+      <c r="E138" s="117"/>
+      <c r="F138" s="76"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B139" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="102">
-        <f>C121</f>
-        <v>-3326.5124758959159</v>
-      </c>
-      <c r="D137" s="76" t="s">
+      <c r="C139" s="119">
+        <f>C123</f>
+        <v>-3326.5124758959159</v>
+      </c>
+      <c r="D139" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="F137" s="80"/>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B138" s="81" t="s">
+      <c r="E139" s="117"/>
+      <c r="F139" s="76"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B140" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C138" s="91">
+      <c r="C140" s="122">
         <v>36</v>
       </c>
-      <c r="F138" s="80"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B139" s="81" t="s">
+      <c r="D140" s="117"/>
+      <c r="E140" s="117"/>
+      <c r="F140" s="76"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B141" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C139" s="106">
-        <f>C128</f>
+      <c r="C141" s="128">
+        <f>C130</f>
         <v>483634.81556176924</v>
       </c>
-      <c r="D139" s="76" t="s">
+      <c r="D141" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="F139" s="80"/>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B140" s="81" t="s">
+      <c r="E141" s="117"/>
+      <c r="F141" s="76"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B142" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C140" s="92">
-        <f>C88</f>
+      <c r="C142" s="88">
+        <f>C90</f>
         <v>485000</v>
       </c>
-      <c r="D140" s="76" t="s">
+      <c r="D142" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="F140" s="80"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B141" s="4" t="s">
+      <c r="E142" s="117"/>
+      <c r="F142" s="76"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B143" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C141" s="71">
-        <f>RATE(C138,C137,C140,-C139)</f>
+      <c r="C143" s="130">
+        <f>RATE(C140,C139,C142,-C141)</f>
         <v>6.7895022416849127E-3</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D143" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="8"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B142" s="4" t="s">
+      <c r="E143" s="125"/>
+      <c r="F143" s="8"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B144" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C142" s="66">
-        <f>C141*12</f>
+      <c r="C144" s="65">
+        <f>C143*12</f>
         <v>8.147402690021896E-2</v>
       </c>
-      <c r="D142" s="65" t="s">
+      <c r="D144" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="F142" s="80"/>
-    </row>
-    <row r="143" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="87" t="s">
+      <c r="E144" s="117"/>
+      <c r="F144" s="76"/>
+    </row>
+    <row r="145" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C143" s="108">
-        <f>(1+C141)^12-1</f>
+      <c r="C145" s="99">
+        <f>(1+C143)^12-1</f>
         <v>8.4586369920465421E-2</v>
       </c>
-      <c r="D143" s="95" t="s">
+      <c r="D145" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="E143" s="89"/>
-      <c r="F143" s="90"/>
+      <c r="E145" s="85"/>
+      <c r="F145" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2895,9 +2944,9 @@
     <mergeCell ref="B23:C23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D113" r:id="rId1" xr:uid="{9C04AD45-DC37-B247-AA1D-46122FABDB51}"/>
-    <hyperlink ref="D97" r:id="rId2" display="apr calculator" xr:uid="{504BDA49-3EF5-6B46-8E97-EE02463C40C2}"/>
-    <hyperlink ref="D96" r:id="rId3" display="Mortgage Professor Caluclator" xr:uid="{5FEC8AF9-59D8-A646-8D09-8608A19BA25C}"/>
+    <hyperlink ref="D115" r:id="rId1" xr:uid="{9C04AD45-DC37-B247-AA1D-46122FABDB51}"/>
+    <hyperlink ref="D99" r:id="rId2" display="apr calculator" xr:uid="{504BDA49-3EF5-6B46-8E97-EE02463C40C2}"/>
+    <hyperlink ref="D98" r:id="rId3" display="Mortgage Professor Caluclator" xr:uid="{5FEC8AF9-59D8-A646-8D09-8608A19BA25C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3335,7 +3384,7 @@
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="70">
         <f t="shared" si="6"/>
         <v>138164.47961279505</v>
       </c>
@@ -3382,7 +3431,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="110">
+      <c r="J16" s="101">
         <v>10000</v>
       </c>
       <c r="K16" s="26">
@@ -4561,7 +4610,7 @@
         <v>5.8333333333333336E-3</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
@@ -4582,16 +4631,16 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="111" t="s">
+      <c r="C56" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="112" t="s">
+      <c r="D56" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="111" t="s">
+      <c r="E56" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="111" t="s">
+      <c r="F56" s="102" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5402,7 +5451,7 @@
     <row r="98" spans="2:6" ht="29" x14ac:dyDescent="0.2">
       <c r="B98" s="31"/>
       <c r="C98" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D98" s="40">
         <f>D96-D97</f>
@@ -5418,7 +5467,7 @@
     <row r="99" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B99" s="31"/>
       <c r="C99" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D99" s="40"/>
       <c r="E99" s="35"/>
@@ -5466,7 +5515,7 @@
         <v>483634.81556176924</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
@@ -5799,7 +5848,7 @@
         <v>6.7895022416850637E-3</v>
       </c>
       <c r="D140" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="2:4" ht="28" x14ac:dyDescent="0.15">
@@ -5811,19 +5860,19 @@
         <v>8.1474026900220764E-2</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B142" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C142" s="109">
+      <c r="C142" s="100">
         <f>(1+C140)^12 -1</f>
         <v>8.4586369920468307E-2</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.15">

--- a/homeworks/CF_HW_3_2024_Answers.xlsx
+++ b/homeworks/CF_HW_3_2024_Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fordhamit-my.sharepoint.com/personal/jcolon_fordham_edu/Documents/Corporate Finance/Corp Fin Git/Corp-Fin/Corporate-Finance/homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{B4E4D17E-52E0-1A41-9D33-4FD4D84BDAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68C65D81-3AF7-004B-BA44-E1516CB2CB07}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{B4E4D17E-52E0-1A41-9D33-4FD4D84BDAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B8C18AE-FFC5-CB43-A45C-65EDAC2958BD}"/>
   <bookViews>
     <workbookView xWindow="10000" yWindow="500" windowWidth="32900" windowHeight="25980" xr2:uid="{94BA6622-874D-4C4C-9275-99AF5B5CA140}"/>
   </bookViews>
@@ -863,7 +863,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1127,34 +1127,26 @@
     <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1503,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F09B5BE-7AF3-BB46-8E22-3746DE23EAA1}">
   <dimension ref="B2:F145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1553,10 +1545,10 @@
       <c r="F8" s="76"/>
     </row>
     <row r="9" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116"/>
+      <c r="C9" s="124"/>
       <c r="F9" s="76"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
@@ -1679,10 +1671,10 @@
       <c r="F22" s="76"/>
     </row>
     <row r="23" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="116"/>
+      <c r="C23" s="124"/>
       <c r="F23" s="76"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
@@ -2250,18 +2242,12 @@
     </row>
     <row r="83" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="58"/>
-      <c r="C83" s="117"/>
-      <c r="D83" s="117"/>
-      <c r="E83" s="117"/>
       <c r="F83" s="76"/>
     </row>
     <row r="84" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B84" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C84" s="117"/>
-      <c r="D84" s="117"/>
-      <c r="E84" s="117"/>
       <c r="F84" s="76"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
@@ -2296,33 +2282,30 @@
       <c r="C87" s="88">
         <v>500000</v>
       </c>
-      <c r="D87" s="117"/>
-      <c r="E87" s="118"/>
+      <c r="E87" s="115"/>
       <c r="F87" s="76"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B88" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="119">
+      <c r="C88" s="116">
         <f>PMT(C92,C89,C87)</f>
         <v>-3326.5124758959159</v>
       </c>
-      <c r="D88" s="120" t="s">
+      <c r="D88" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="E88" s="121"/>
+      <c r="E88" s="117"/>
       <c r="F88" s="76"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B89" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="122">
+      <c r="C89" s="87">
         <v>360</v>
       </c>
-      <c r="D89" s="117"/>
-      <c r="E89" s="117"/>
       <c r="F89" s="76"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
@@ -2333,10 +2316,9 @@
         <f>C87-C87*C85</f>
         <v>485000</v>
       </c>
-      <c r="D90" s="120" t="s">
+      <c r="D90" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E90" s="117"/>
       <c r="F90" s="76"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
@@ -2346,8 +2328,7 @@
       <c r="C91" s="93">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D91" s="120"/>
-      <c r="E91" s="117"/>
+      <c r="D91" s="89"/>
       <c r="F91" s="76"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
@@ -2358,10 +2339,9 @@
         <f>C91/12</f>
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="D92" s="123" t="s">
+      <c r="D92" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="E92" s="117"/>
       <c r="F92" s="76"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
@@ -2372,10 +2352,10 @@
         <f>RATE(C89,C88,C90)</f>
         <v>6.0871089941770132E-3</v>
       </c>
-      <c r="D93" s="124" t="s">
+      <c r="D93" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E93" s="125"/>
+      <c r="E93" s="7"/>
       <c r="F93" s="8"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
@@ -2386,10 +2366,9 @@
         <f>C93*12</f>
         <v>7.3045307930124162E-2</v>
       </c>
-      <c r="D94" s="123" t="s">
+      <c r="D94" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="E94" s="117"/>
       <c r="F94" s="76"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
@@ -2400,221 +2379,193 @@
         <f>(1+C93)^12-1</f>
         <v>7.5541105223523974E-2</v>
       </c>
-      <c r="D95" s="126" t="s">
+      <c r="D95" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="E95" s="117"/>
       <c r="F95" s="76"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B96" s="4"/>
-      <c r="C96" s="122"/>
-      <c r="D96" s="126" t="s">
+      <c r="C96" s="87"/>
+      <c r="D96" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="117"/>
       <c r="F96" s="76"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="4"/>
-      <c r="C97" s="122"/>
-      <c r="D97" s="126" t="s">
+      <c r="C97" s="87"/>
+      <c r="D97" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="E97" s="117"/>
       <c r="F97" s="76"/>
     </row>
     <row r="98" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B98" s="4"/>
-      <c r="C98" s="122"/>
-      <c r="D98" s="127" t="s">
+      <c r="C98" s="87"/>
+      <c r="D98" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="E98" s="117"/>
       <c r="F98" s="76"/>
     </row>
     <row r="99" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="61"/>
-      <c r="C99" s="122"/>
+      <c r="C99" s="87"/>
       <c r="D99" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="E99" s="117"/>
       <c r="F99" s="76"/>
     </row>
     <row r="100" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B100" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C100" s="122"/>
-      <c r="D100" s="126"/>
-      <c r="E100" s="117"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="60"/>
       <c r="F100" s="76"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B101" s="4"/>
-      <c r="C101" s="122"/>
-      <c r="D101" s="126"/>
-      <c r="E101" s="117"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="60"/>
       <c r="F101" s="76"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B102" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="122"/>
-      <c r="D102" s="126"/>
-      <c r="E102" s="117"/>
+      <c r="C102" s="87"/>
+      <c r="D102" s="60"/>
       <c r="F102" s="76"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B103" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C103" s="119">
+      <c r="C103" s="116">
         <f>C88</f>
         <v>-3326.5124758959159</v>
       </c>
-      <c r="D103" s="126" t="s">
+      <c r="D103" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="E103" s="117"/>
       <c r="F103" s="76"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="66">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C104" s="119">
+      <c r="C104" s="116">
         <f>PMT(B104/12,360, 500000)</f>
         <v>-3496.0725427638963</v>
       </c>
-      <c r="D104" s="123" t="s">
+      <c r="D104" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="E104" s="117"/>
       <c r="F104" s="76"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B105" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C105" s="119">
+      <c r="C105" s="116">
         <f>C103-C104</f>
         <v>169.56006686798037</v>
       </c>
-      <c r="D105" s="126"/>
-      <c r="E105" s="117"/>
+      <c r="D105" s="60"/>
       <c r="F105" s="76"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C106" s="128">
+      <c r="C106" s="120">
         <f>C86</f>
         <v>15000</v>
       </c>
-      <c r="D106" s="126"/>
-      <c r="E106" s="117"/>
+      <c r="D106" s="60"/>
       <c r="F106" s="76"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C107" s="129">
+      <c r="C107" s="121">
         <f>C106/C105</f>
         <v>88.464225551874861</v>
       </c>
-      <c r="D107" s="123" t="s">
+      <c r="D107" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="E107" s="117"/>
       <c r="F107" s="76"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B108" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C108" s="117"/>
-      <c r="D108" s="117"/>
-      <c r="E108" s="117"/>
       <c r="F108" s="76"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C109" s="122" t="str">
+      <c r="C109" s="87" t="str">
         <f>INT(C107/12) &amp; " years and " &amp;ROUND(MOD(C107,12),0)&amp; " months"</f>
         <v>7 years and 4 months</v>
       </c>
-      <c r="D109" s="123" t="s">
+      <c r="D109" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="E109" s="117"/>
       <c r="F109" s="76"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="4"/>
-      <c r="C110" s="122"/>
-      <c r="D110" s="126" t="s">
+      <c r="C110" s="87"/>
+      <c r="D110" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="E110" s="117"/>
       <c r="F110" s="76"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" s="90"/>
-      <c r="C111" s="117"/>
-      <c r="D111" s="117"/>
-      <c r="E111" s="117"/>
       <c r="F111" s="76"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B112" s="90"/>
-      <c r="C112" s="117"/>
-      <c r="D112" s="126" t="s">
+      <c r="D112" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="E112" s="117"/>
       <c r="F112" s="76"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B113" s="4"/>
-      <c r="C113" s="122"/>
-      <c r="D113" s="126" t="s">
+      <c r="C113" s="87"/>
+      <c r="D113" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="E113" s="117"/>
       <c r="F113" s="76"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B114" s="4"/>
-      <c r="C114" s="122"/>
-      <c r="D114" s="126" t="s">
+      <c r="C114" s="87"/>
+      <c r="D114" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E114" s="117"/>
       <c r="F114" s="76"/>
     </row>
     <row r="115" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B115" s="4"/>
-      <c r="C115" s="122"/>
+      <c r="C115" s="87"/>
       <c r="D115" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="E115" s="117"/>
       <c r="F115" s="76"/>
     </row>
     <row r="116" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B116" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C116" s="122"/>
-      <c r="D116" s="117"/>
-      <c r="E116" s="117"/>
+      <c r="C116" s="87"/>
       <c r="F116" s="76"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
@@ -2624,8 +2575,6 @@
       <c r="C117" s="88">
         <v>500000</v>
       </c>
-      <c r="D117" s="117"/>
-      <c r="E117" s="117"/>
       <c r="F117" s="76"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.15">
@@ -2636,75 +2585,65 @@
         <f>C92</f>
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="D118" s="123" t="s">
+      <c r="D118" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="E118" s="117"/>
       <c r="F118" s="76"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B119" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="119">
+      <c r="C119" s="116">
         <f>PMT(C118,C120,C117)</f>
         <v>-3326.5124758959159</v>
       </c>
-      <c r="D119" s="117"/>
-      <c r="E119" s="117"/>
       <c r="F119" s="76"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B120" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C120" s="122">
+      <c r="C120" s="87">
         <v>360</v>
       </c>
-      <c r="D120" s="117"/>
-      <c r="E120" s="117"/>
       <c r="F120" s="76"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B121" s="77"/>
-      <c r="C121" s="122"/>
-      <c r="D121" s="117"/>
-      <c r="E121" s="117"/>
+      <c r="C121" s="87"/>
       <c r="F121" s="76"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B122" s="77"/>
-      <c r="C122" s="122"/>
-      <c r="D122" s="117"/>
-      <c r="E122" s="125"/>
+      <c r="C122" s="87"/>
+      <c r="E122" s="7"/>
       <c r="F122" s="8"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B123" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C123" s="119">
+      <c r="C123" s="116">
         <f>C119</f>
         <v>-3326.5124758959159</v>
       </c>
-      <c r="D123" s="117" t="s">
+      <c r="D123" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="E123" s="117"/>
       <c r="F123" s="76"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B124" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C124" s="122">
+      <c r="C124" s="87">
         <f>360-(12*3)</f>
         <v>324</v>
       </c>
-      <c r="D124" s="126" t="s">
+      <c r="D124" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="E124" s="117"/>
       <c r="F124" s="76"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.15">
@@ -2715,8 +2654,6 @@
         <f>C118</f>
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="D125" s="117"/>
-      <c r="E125" s="117"/>
       <c r="F125" s="76"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.15">
@@ -2727,26 +2664,23 @@
         <f>PV(C125,C124,C123)</f>
         <v>483634.81556176976</v>
       </c>
-      <c r="D126" s="124" t="s">
+      <c r="D126" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E126" s="117"/>
       <c r="F126" s="76"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B127" s="77"/>
-      <c r="C127" s="122"/>
-      <c r="D127" s="117"/>
-      <c r="E127" s="117"/>
+      <c r="C127" s="87"/>
       <c r="F127" s="76"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B128" s="77"/>
-      <c r="C128" s="128"/>
-      <c r="D128" s="125" t="s">
+      <c r="C128" s="120"/>
+      <c r="D128" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E128" s="125"/>
+      <c r="E128" s="7"/>
       <c r="F128" s="8"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.15">
@@ -2757,10 +2691,9 @@
         <f>CUMPRINC(C118,C89,C87,1,36,0)</f>
         <v>-16365.184438230755</v>
       </c>
-      <c r="D129" s="124" t="s">
+      <c r="D129" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E129" s="117"/>
       <c r="F129" s="76"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.15">
@@ -2771,115 +2704,101 @@
         <f>C117+C129</f>
         <v>483634.81556176924</v>
       </c>
-      <c r="D130" s="123" t="s">
+      <c r="D130" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="E130" s="117"/>
       <c r="F130" s="76"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B131" s="77"/>
       <c r="C131" s="88"/>
-      <c r="D131" s="117"/>
-      <c r="E131" s="117"/>
       <c r="F131" s="76"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B132" s="77"/>
       <c r="C132" s="88"/>
-      <c r="D132" s="125" t="s">
+      <c r="D132" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E132" s="117"/>
       <c r="F132" s="76"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B133" s="77"/>
       <c r="C133" s="88"/>
-      <c r="D133" s="120"/>
-      <c r="E133" s="117"/>
+      <c r="D133" s="89"/>
       <c r="F133" s="76"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B134" s="77"/>
       <c r="C134" s="88"/>
-      <c r="D134" s="120" t="s">
+      <c r="D134" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="E134" s="117"/>
       <c r="F134" s="76"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B135" s="77"/>
       <c r="C135" s="88"/>
-      <c r="D135" s="120"/>
-      <c r="E135" s="117"/>
+      <c r="D135" s="89"/>
       <c r="F135" s="76"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B136" s="77"/>
-      <c r="C136" s="128"/>
-      <c r="D136" s="125" t="s">
+      <c r="C136" s="120"/>
+      <c r="D136" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E136" s="117"/>
       <c r="F136" s="76"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B137" s="77"/>
-      <c r="C137" s="128"/>
-      <c r="D137" s="117" t="s">
+      <c r="C137" s="120"/>
+      <c r="D137" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E137" s="117"/>
       <c r="F137" s="76"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B138" s="77"/>
-      <c r="C138" s="122"/>
-      <c r="D138" s="125" t="s">
+      <c r="C138" s="87"/>
+      <c r="D138" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E138" s="117"/>
       <c r="F138" s="76"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B139" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C139" s="119">
+      <c r="C139" s="116">
         <f>C123</f>
         <v>-3326.5124758959159</v>
       </c>
-      <c r="D139" s="117" t="s">
+      <c r="D139" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="E139" s="117"/>
       <c r="F139" s="76"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B140" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C140" s="122">
+      <c r="C140" s="87">
         <v>36</v>
       </c>
-      <c r="D140" s="117"/>
-      <c r="E140" s="117"/>
       <c r="F140" s="76"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B141" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C141" s="128">
+      <c r="C141" s="120">
         <f>C130</f>
         <v>483634.81556176924</v>
       </c>
-      <c r="D141" s="117" t="s">
+      <c r="D141" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="E141" s="117"/>
       <c r="F141" s="76"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.15">
@@ -2890,24 +2809,23 @@
         <f>C90</f>
         <v>485000</v>
       </c>
-      <c r="D142" s="117" t="s">
+      <c r="D142" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="E142" s="117"/>
       <c r="F142" s="76"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B143" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C143" s="130">
+      <c r="C143" s="122">
         <f>RATE(C140,C139,C142,-C141)</f>
         <v>6.7895022416849127E-3</v>
       </c>
-      <c r="D143" s="124" t="s">
+      <c r="D143" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E143" s="125"/>
+      <c r="E143" s="7"/>
       <c r="F143" s="8"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.15">
@@ -2918,10 +2836,9 @@
         <f>C143*12</f>
         <v>8.147402690021896E-2</v>
       </c>
-      <c r="D144" s="123" t="s">
+      <c r="D144" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="E144" s="117"/>
       <c r="F144" s="76"/>
     </row>
     <row r="145" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
